--- a/tetvol.xlsx
+++ b/tetvol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ángel Guzmán\Desktop\ds\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S1-M01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B531A619-33FF-4C5E-A4A3-288E29B9CF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56CAFED-6946-497F-B384-63FB3B1406EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A543825C-8FD0-478F-9825-616151D36F78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A543825C-8FD0-478F-9825-616151D36F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.34339999999999998</v>
+        <v>5.6192789999999997</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -459,7 +459,7 @@
         <v>0.03</v>
       </c>
       <c r="B3" s="4">
-        <v>0.42159999999999997</v>
+        <v>5.889278</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -468,7 +468,7 @@
         <v>0.06</v>
       </c>
       <c r="B4" s="4">
-        <v>0.66300000000000003</v>
+        <v>6.5736559999999997</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -477,7 +477,7 @@
         <v>0.09</v>
       </c>
       <c r="B5" s="4">
-        <v>0.83020000000000005</v>
+        <v>6.9976839999999996</v>
       </c>
       <c r="E5" s="4"/>
     </row>

--- a/tetvol.xlsx
+++ b/tetvol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S1-M01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S1-M01\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56CAFED-6946-497F-B384-63FB3B1406EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76098C66-8C5F-4BCD-997A-C2D6F00EE092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A543825C-8FD0-478F-9825-616151D36F78}"/>
   </bookViews>
